--- a/shell.xlsx
+++ b/shell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzxs\work\CS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66EA6E2-4DBA-4C27-BA79-72F28EBB2C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCC7575-EB75-4F26-9066-4DD9DB507419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,62 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="193">
   <si>
     <t>运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +相对路径/绝对路径到xx.sh
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +相对路径/绝对路径到xx.sh
-不用+x权限</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不加前面的bash/sh： 设置x权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -307,35 +254,6 @@
   </si>
   <si>
     <t>不用引号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>任何字符都会</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>原样输出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，单引号字符串中的变量是无效的</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -866,28 +784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运算符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>注意乘号用</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-ne</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1113,24 +1009,6 @@
   </si>
   <si>
     <t>$-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>显示Shell使用的当前选项，与</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>set命令功能相同。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1388,6 +1266,1094 @@
   </si>
   <si>
     <t>不推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>任何字符都会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原样输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，禁止引用变量值，单引号字符串中的变量是无效的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含外部脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[xx]和[[xx]]区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[xx]] 内部可以支持使用&amp;&amp;，||，算数运算
+[xxx]内部用-a，-o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m=$(( m + 1 ))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$(( xxx ))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh -n script_name.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查是否有语法错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh -x script_name.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">getopts </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getopts “ahfvc:” opt
+表明选项a、h、f、v可以不加实际值进行传递，而选项c必须取值
+getopts ":a:bc" opt
+第一个冒号表示忽略错误；如果-a后面没有参数，不会报错，会被忽略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. ./filename.sh
+source ./test1.sh
+可以直接使用外部脚本中的函数，变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据剪切：字节/字符/字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>文本分析工具，文件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逐行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读入，以空格为默认分隔符将每行切片，选出想要的部分进行一些处理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>set和grep都支持在缓存中处理然后打印到控制台，实际上没有对文件修改。想要保存到原文件的话可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来保存到文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是用来将数据进行选取、替换、删除、新増。逐行读取文件内容，读到匹配的行就根据指令做操作
+sed [选项] '[动作]' 文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通配符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配任意长度的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配一个长度的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[xxx]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配xxx其中的一个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ a- z]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配指定的一个字符范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[^ xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">除了指定的字符xxx，其他的均可匹配	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1 = s2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1 != s2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否为空串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否为非空串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重条件判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注意乘号用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因为*是通配符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反引号 `xxx`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一样，里面的命令会优先执行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入输出重定向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将file文件重定向为输出源，新建模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls /usr &gt;lsoutput.txt，将ls /usr命令的执行结果，写到lsoutput.txt中去，如没有此文件将新建，若存在此文件，将覆盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将file文件重定向为输入源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc &lt; file1，将file1中的内容作为输入源传给wc命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将file文件重定向为输出源，追加模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls /usr &gt;&gt;lsoutput.txt，将ls /usr命令的执行结果，追加到lsoutput.txt文件已有的内容之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2&gt;或&amp;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将由命令产生的错误信息输入到文件中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls notexistfile.txt 2&gt;err.log，使用ls命令查看一个不存在的文件名的时候，将系统错误信息提示保存在err.log文件中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>输入/输出重定向目的在于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shell命令或者程序默认的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标准输入/输出目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。重新定向到新的目标
+Linux中的默认的标注输入定义为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从键盘输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，标准输出定义为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从终端窗口输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+用于为当前操作改变输入或者输出，迫使某人特定命令的输入或者输出来源为外部文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$() </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式求值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前 Shell 的选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命令输出赋值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给变量，等同于反引号`xxx`</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>括号区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.扩展整数型的计算,不支持浮点型。如果表达式的结果为0，那么返回的退出状态码为1，或者 是"假"，而一个非零值的表达式所返回的退出状态码将为0，或者是"true"
+2.常用于算术运算比较，双括号中的变量可以不使用$符号前缀。for((i=0;i&lt;5;i++))或if (($i&lt;5)) 可用&lt;符号，否则[]内用-le</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.bash 的内部命令，和test等同。If test结构中的左中括号是调用test的命令标识，右中括号是关闭条件判断
+2.Test和[]中可用的比较运算符只有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，两者都是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于字符串比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，不可用于整数比较，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整数比较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只能使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-eq，-gt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这种形式。的逻辑与和逻辑或使用-a 和-o
+3.字符范围。用作正则表达式的一部分，描述一个匹配的字符范围。作为test用途的中括号内不能使用正则。
+4.array 结构的上下文中（数组），中括号用来引用数组中每个元素的编号
+5.$[] 表达式求值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.作为条件判断结构，可以使用&amp;&amp;、||、&lt;和&gt; 操作符
+2.支持字符串的模式匹配，使用=~操作符时甚至支持shell的正则表达式。字符串比较时可以把</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>右边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的作为一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而不仅仅是一个字符串，比如[[ hello == hell? ]]，结果为真。[[ ]] 中匹配字符串或通配符，不需要引号。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取变量的值, 可以省略大括号。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于和之后的字符区分</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$(())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$((expression)) 和`exprexpression`效果相同, 计算数学表达式exp的数值, 其中exp只要符合C语言的运算规则即可, 甚至三目运算符和逻辑表达式都可以计算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.括号中的命令将会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新开一个子shell顺序执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以括号中的变量不能够被脚本余下的部分使用。括号中多个命令之间用分号隔开
+      (cmd1;cmd2;cmd3) 新开一个子shell顺序执行命令cmd1,cmd2,cmd3, 各命令之间用分号隔开, 最后一个命令后可以没有分号
+2.命令替换。等同于`cmd`
+3.用于初始化数组。如：array=(a b c d)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.大括号拓展。ls {ex{1..3},ex4}.sh  ----&gt;   ex1.sh ex2.sh ex3.sh ex4.sh 
+                        ls {ex[1-3],ex4}.sh  ----&gt;   ex1.sh ex2.sh ex3.sh ex4.sh
+2.代码块，又被称为内部组，这个结构事实上创建了一个匿名函数 。与小括号中的命令不同，大括号内的命令</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不会新开一个子shell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行，即脚本余下部分仍可使用括号内变量。括号内的命令间用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隔开，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最后一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必须有分号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。{}的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一个命令和左括号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之间必须要有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。    { cmd1;cmd2;cmd3;}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">对{}和()而言, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>括号中的重定向符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只影响该条命令， 而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>括号外的重定向符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>影响到括号中的所有命令</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>执行并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Shell 脚本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准执行方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chmod +x
+./xxx.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非标准方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直接在命令行指定解释器执行
+bash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +相对路径/绝对路径到xx.sh
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +相对路径/绝对路径到xx.sh
+source </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1428,9 +2394,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1457,7 +2423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1488,6 +2454,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1770,10 +2749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C64"/>
+  <dimension ref="A2:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1783,522 +2762,900 @@
     <col min="3" max="3" width="116.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="C2" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="C40" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="C56" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C62" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="B63" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="C47" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
       <c r="B64" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C64" t="s">
-        <v>102</v>
+      <c r="C64" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="B68" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="C77" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="12"/>
+      <c r="B89" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
+      <c r="B98" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+      <c r="B108" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+      <c r="B109" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+      <c r="B110" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+      <c r="B111" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+      <c r="C112" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="17">
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A61:A71"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A82:A86"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A40:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C58" r:id="rId1" display="https://www.runoob.com/linux/linux-comm-set.html" xr:uid="{0900B4AE-D6D9-4C77-AB1B-404005672B8A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/shell.xlsx
+++ b/shell.xlsx
@@ -996,25 +996,38 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> condition
+      <t>while ((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> condition </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -2238,14 +2251,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2255,13 +2261,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2724,152 +2723,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2877,27 +2876,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -2906,7 +2908,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3230,8 +3232,8 @@
   <sheetPr/>
   <dimension ref="A2:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A72"/>
+    <sheetView tabSelected="1" topLeftCell="C54" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -3366,15 +3368,15 @@
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -3382,7 +3384,7 @@
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -3390,7 +3392,7 @@
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -3398,7 +3400,7 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -3406,7 +3408,7 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -3417,7 +3419,7 @@
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -3425,7 +3427,7 @@
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3436,7 +3438,7 @@
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3444,7 +3446,7 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -3452,13 +3454,13 @@
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="4"/>
@@ -3467,10 +3469,10 @@
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3486,34 +3488,34 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" ht="42" spans="2:3">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3638,7 +3640,7 @@
       <c r="A57" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3673,7 +3675,7 @@
       <c r="B62" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3681,7 +3683,7 @@
       <c r="B63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3689,7 +3691,7 @@
       <c r="B64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3697,7 +3699,7 @@
       <c r="B65" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3705,7 +3707,7 @@
       <c r="B66" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3713,7 +3715,7 @@
       <c r="B67" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3721,7 +3723,7 @@
       <c r="B68" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3729,15 +3731,15 @@
       <c r="B69" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="70" ht="28" spans="2:3">
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3745,7 +3747,7 @@
       <c r="B71" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3753,7 +3755,7 @@
       <c r="B72" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="12" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3764,7 +3766,7 @@
       <c r="B73" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3933,10 +3935,10 @@
       <c r="A101" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3944,10 +3946,10 @@
       <c r="A102" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="8" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3955,10 +3957,10 @@
       <c r="A103" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3966,10 +3968,10 @@
       <c r="A104" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="8" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3980,7 +3982,7 @@
       <c r="B107" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="9" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3988,7 +3990,7 @@
       <c r="B108" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="9" t="s">
         <v>185</v>
       </c>
     </row>

--- a/shell.xlsx
+++ b/shell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -681,14 +681,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>if [</t>
     </r>
     <r>
@@ -710,17 +702,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">]      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使用(())和[[]]时可以用&gt;，&lt;，||等符号
 </t>
     </r>
     <r>
@@ -1017,17 +1009,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>))</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">))                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">condition用法和if一样，可以使用 test 或 [] 命令，也可以使用 (()) 或 [[]]
 </t>
     </r>
     <r>
@@ -1816,7 +1808,7 @@
     <t>括号区分</t>
   </si>
   <si>
-    <t>()</t>
+    <t>(  )</t>
   </si>
   <si>
     <r>
@@ -1855,14 +1847,15 @@
     </r>
   </si>
   <si>
-    <t>(())</t>
+    <t>((  ))</t>
   </si>
   <si>
     <t>1.扩展整数型的计算,不支持浮点型。如果表达式的结果为0，那么返回的退出状态码为1，或者 是"假"，而一个非零值的表达式所返回的退出状态码将为0，或者是"true"
-2.常用于算术运算比较，双括号中的变量可以不使用$符号前缀。for((i=0;i&lt;5;i++))或if (($i&lt;5)) 可用&lt;符号，否则[]内用-le</t>
-  </si>
-  <si>
-    <t>[]</t>
+2.常用于算术运算比较，双括号中的变量可以不使用$符号前缀。for((i=0;i&lt;5;i++))或if (($i&lt;5)) 可用&lt;符号，否则[]内用-le
+3.在判断命令中只允许在比较中进行简单的算术操作，而双圆括号提供更多的数学符号，而且在双圆括号里面的'&gt;','&lt;'号不需要转意</t>
+  </si>
+  <si>
+    <t>[  ]</t>
   </si>
   <si>
     <r>
@@ -1986,7 +1979,7 @@
     </r>
   </si>
   <si>
-    <t>[[]]</t>
+    <t>[[  ]]</t>
   </si>
   <si>
     <r>
@@ -2044,7 +2037,7 @@
     </r>
   </si>
   <si>
-    <t>{}</t>
+    <t>{  }</t>
   </si>
   <si>
     <r>
@@ -3232,18 +3225,18 @@
   <sheetPr/>
   <dimension ref="A2:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C54" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="116.216666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="116.212962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="56" spans="1:3">
+    <row r="2" ht="55.2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3254,7 +3247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="2:3">
+    <row r="3" ht="27.6" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3340,7 +3333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="42" spans="2:3">
+    <row r="15" ht="41.4" spans="2:3">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -3356,7 +3349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="28" spans="2:3">
+    <row r="17" ht="27.6" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
@@ -3503,7 +3496,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" ht="42" spans="2:3">
+    <row r="38" ht="41.4" spans="2:3">
       <c r="B38" s="15" t="s">
         <v>63</v>
       </c>
@@ -3530,7 +3523,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" ht="28" spans="2:3">
+    <row r="41" ht="27.6" spans="2:3">
       <c r="B41" s="1" t="s">
         <v>70</v>
       </c>
@@ -3570,7 +3563,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" ht="70" spans="1:3">
+    <row r="47" ht="69" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
@@ -3586,7 +3579,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" ht="84" spans="2:3">
+    <row r="49" ht="82.8" spans="2:3">
       <c r="B49" s="1" t="s">
         <v>84</v>
       </c>
@@ -3602,7 +3595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" ht="84" spans="2:3">
+    <row r="51" ht="82.8" spans="2:3">
       <c r="B51" s="1" t="s">
         <v>88</v>
       </c>
@@ -3610,20 +3603,20 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" ht="126" spans="1:3">
+    <row r="53" ht="124.2" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" ht="28" spans="3:3">
+    <row r="54" ht="27.6" spans="3:3">
       <c r="C54" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" ht="84" spans="1:3">
+    <row r="55" ht="82.8" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
@@ -3631,12 +3624,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" ht="42" spans="3:3">
+    <row r="56" ht="41.4" spans="3:3">
       <c r="C56" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" ht="56" spans="1:3">
+    <row r="57" ht="55.2" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>96</v>
       </c>
@@ -3644,7 +3637,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" ht="154" spans="1:3">
+    <row r="58" ht="151.8" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
@@ -3652,7 +3645,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" ht="42" spans="1:3">
+    <row r="59" ht="41.4" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
@@ -3679,7 +3672,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" ht="28" spans="2:3">
+    <row r="63" ht="27.6" spans="2:3">
       <c r="B63" s="1" t="s">
         <v>107</v>
       </c>
@@ -3703,7 +3696,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" ht="28" spans="2:3">
+    <row r="66" ht="27.6" spans="2:3">
       <c r="B66" s="1" t="s">
         <v>113</v>
       </c>
@@ -3735,7 +3728,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" ht="28" spans="2:3">
+    <row r="70" ht="27.6" spans="2:3">
       <c r="B70" s="11" t="s">
         <v>121</v>
       </c>
@@ -3759,7 +3752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" ht="56" spans="1:3">
+    <row r="73" ht="55.2" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>127</v>
       </c>
@@ -3773,7 +3766,7 @@
     <row r="74" spans="3:3">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" ht="84" spans="1:3">
+    <row r="75" ht="82.8" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>130</v>
       </c>
@@ -3789,7 +3782,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="3:3">
+    <row r="77" ht="27.6" spans="3:3">
       <c r="C77" s="4" t="s">
         <v>134</v>
       </c>
@@ -3802,7 +3795,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" ht="28" spans="2:3">
+    <row r="80" ht="27.6" spans="2:3">
       <c r="B80" s="1" t="s">
         <v>137</v>
       </c>
@@ -3832,7 +3825,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" ht="28" spans="2:3">
+    <row r="84" ht="27.6" spans="2:3">
       <c r="B84" s="1" t="s">
         <v>144</v>
       </c>
@@ -3896,7 +3889,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" ht="42" spans="1:3">
+    <row r="94" ht="41.4" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>160</v>
       </c>
@@ -3923,7 +3916,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" ht="42" spans="1:3">
+    <row r="100" ht="41.4" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>167</v>
       </c>
@@ -3931,7 +3924,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" ht="28" spans="1:3">
+    <row r="101" ht="27.6" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>169</v>
       </c>
@@ -3942,7 +3935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" ht="28" spans="1:3">
+    <row r="102" ht="27.6" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>172</v>
       </c>
@@ -3953,7 +3946,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" ht="28" spans="1:3">
+    <row r="103" ht="27.6" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>175</v>
       </c>
@@ -3964,7 +3957,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" ht="28" spans="1:3">
+    <row r="104" ht="41.4" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>178</v>
       </c>
@@ -3975,7 +3968,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="107" ht="56" spans="1:3">
+    <row r="107" ht="55.2" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>181</v>
       </c>
@@ -3986,7 +3979,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" ht="42" spans="2:3">
+    <row r="108" ht="55.2" spans="2:3">
       <c r="B108" s="1" t="s">
         <v>184</v>
       </c>
@@ -3994,7 +3987,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" ht="84" spans="2:3">
+    <row r="109" ht="82.8" spans="2:3">
       <c r="B109" s="1" t="s">
         <v>186</v>
       </c>
@@ -4002,7 +3995,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" ht="42" spans="2:3">
+    <row r="110" ht="41.4" spans="2:3">
       <c r="B110" s="1" t="s">
         <v>188</v>
       </c>
@@ -4010,7 +4003,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" ht="70" spans="2:3">
+    <row r="111" ht="69" spans="2:3">
       <c r="B111" s="1" t="s">
         <v>190</v>
       </c>

--- a/shell.xlsx
+++ b/shell.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="15330" windowHeight="8330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="shell" sheetId="1" r:id="rId1"/>
+    <sheet name="linux命令" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="349">
   <si>
     <t>运行</t>
   </si>
@@ -681,6 +682,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>if [</t>
     </r>
     <r>
@@ -988,6 +997,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>while ((</t>
     </r>
     <r>
@@ -2232,6 +2249,994 @@
       </rPr>
       <t>影响到括号中的所有命令</t>
     </r>
+  </si>
+  <si>
+    <t>管道符</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>前一个的输出作为后一个的输入</t>
+  </si>
+  <si>
+    <t>目录操作</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>-到前一个目录</t>
+  </si>
+  <si>
+    <t>win10 cmd 跳转目录</t>
+  </si>
+  <si>
+    <t>cd /d xxx</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>-a:显示隐藏文件；-l：显示文件属性与权限    -h表示Human-Readable，使用GB,MB等易读的格式方式显示
+ls -l  ----&gt;  ll
+查看隐藏 -a
+ls | head -n 100  查看前100个文件的名称</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>print working directory</t>
+  </si>
+  <si>
+    <t>mkdir</t>
+  </si>
+  <si>
+    <t>-p:自动建立多级目录；-m：设置权限</t>
+  </si>
+  <si>
+    <t>rmdir</t>
+  </si>
+  <si>
+    <t>删空目录。-p:将多级空目录删除</t>
+  </si>
+  <si>
+    <t>文件操作</t>
+  </si>
+  <si>
+    <t>打印输出内容到控制台
+-e 反斜杠进行字符转换</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>复制、建链接档、更名。-s:软链接（快捷方式），-r:递归复制；-i：覆盖前询问</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>-f:不询问,-i:询问,-u:更新才更新。mv f1 f2 f3 ... DIR（移动多个文件，最后一个为目录）</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>-f：忽略不存在的,-i：询问,-r：递归</t>
+  </si>
+  <si>
+    <t>basename</t>
+  </si>
+  <si>
+    <t>当前文件夹名字</t>
+  </si>
+  <si>
+    <t>dirname</t>
+  </si>
+  <si>
+    <t>当前文件夹所在完整路径</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <r>
+      <t>修改文件的创建时间，或</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建文件</t>
+    </r>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>打印输出文件    
+cat 1.txt
+cat 1.txt 2.txt
+显示文件的从第3000行开始之后的1000行： cat filename | tail -n +3000 | head -n 1000
+显示1000行到3000行： cat filename| head -n 3000 | tail -n +1000</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>head [-n number] filename   取得文件前几行</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>是 head 的反向操作，只是取得是后几行
+tail -n 1000 filename：显示最后的1000行
+tail -n +1000 filename：显示1000行之后的</t>
+  </si>
+  <si>
+    <t>tail命令 - 实时监控日志</t>
+  </si>
+  <si>
+    <t>tail -f /var/log/apache2/access.log</t>
+  </si>
+  <si>
+    <t>重定向</t>
+  </si>
+  <si>
+    <t>&gt;  覆盖某个文件
+&gt;&gt; 追加到某个文件</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>uniq</t>
+  </si>
+  <si>
+    <t>去重</t>
+  </si>
+  <si>
+    <t>过滤</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>计算Byte数，字数，列数</t>
+  </si>
+  <si>
+    <t>从标准输入读取数值,读取单行数据。这个命令可以用来读取键盘输入，当使用重定向的时候，可以读取文件中的一行数据。</t>
+  </si>
+  <si>
+    <t>vim</t>
+  </si>
+  <si>
+    <t>相比vi，可根据文件扩展名判断文件内容，用颜色显示程序代码</t>
+  </si>
+  <si>
+    <t>利用脚本来处理文本文件</t>
+  </si>
+  <si>
+    <t>查找文件里符合条件的字符串</t>
+  </si>
+  <si>
+    <t>grep test *file    在当前目录中，查找后缀有 file 字样的文件中包含 test 字符串的文件，并打印出该字符串的行</t>
+  </si>
+  <si>
+    <r>
+      <t>grep -r update /etc/acpi      以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>递归</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的方式查找符合条件的文件。例如，查找指定目录/etc/acpi 及其子目录（如果存在子目录的话）下所有文件中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包含字符串"update"的文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并打印出该字符串所在行的内容</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AWK 是一种处理文本文件的语言，是一个强大的文本分析工具
+awk [选项参数] 'script' var=value file(s)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>file为读取的文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+或者 awk [选项参数] -f scriptfile var=value file(s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print输出：各项目间使用逗号分隔开，而输出时以空白字符串为分隔
+输出重定向：用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>filename</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   目标文件必须用双引号括起</t>
+    </r>
+  </si>
+  <si>
+    <t>内置函数：split,substr,length</t>
+  </si>
+  <si>
+    <t>压缩解压</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>zip -r a.zip ./      (r将指定的目录下的所有子目录以及文件一起处理)</t>
+  </si>
+  <si>
+    <t>unzip</t>
+  </si>
+  <si>
+    <t>unzip -d ./dst a.zip   解压到哪里
+-l  （递归地）查看有哪些文件，不解压</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tar -cvf aa.tar bbb.txt  打包，不压缩
+tar -xvf aa.tar  解压缩
+tar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-zcvf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> aa.tar.gz bbb.txt 打包后gzip压缩
+tar -jcvf aa.tar.bz2 bbb.txt 打包后bzip2压缩
+tar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-zxvf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> aaa.tar.gz</t>
+    </r>
+  </si>
+  <si>
+    <t>文件查找</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <r>
+      <t>寻找</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所在的目录</t>
+    </r>
+  </si>
+  <si>
+    <t>whereis</t>
+  </si>
+  <si>
+    <t>只从一些特定文件夹找文件。-l：看从哪些文件夹里找</t>
+  </si>
+  <si>
+    <t>locate</t>
+  </si>
+  <si>
+    <t>（利用数据库查找文件）</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>find path option   
+-mtime n:之前第n天改过的文件(0：最近24小时的)；-mtime +n：n天之前动过的；-mtime -n：最近的n天内的</t>
+  </si>
+  <si>
+    <t>-name:根据文件名找</t>
+  </si>
+  <si>
+    <t>-size [+-]SIZE：根据文件大小找文件</t>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>chmod</t>
+  </si>
+  <si>
+    <t>rwx  101  转换为十进制得到相应的数字
+chmod [Owner|group|others]
+chmod 740 a.txt</t>
+  </si>
+  <si>
+    <t>chown</t>
+  </si>
+  <si>
+    <t>设置文件所有者和文件关联组，例如改变所有者或组之后，chmod里的权限之前的用户会变为other</t>
+  </si>
+  <si>
+    <t>重启</t>
+  </si>
+  <si>
+    <t>shutdown</t>
+  </si>
+  <si>
+    <t>shutdown -h now    现在立即关机
+-r:重启</t>
+  </si>
+  <si>
+    <t>reboot</t>
+  </si>
+  <si>
+    <t>关机/重启挂载</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>挂载</t>
+  </si>
+  <si>
+    <t>命令帮助文档</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>查看命令如何使用</t>
+  </si>
+  <si>
+    <t>tldr</t>
+  </si>
+  <si>
+    <t>查看命令如何使用，直接给出几个最常用的例子
+安装方式：
+sudo apt-get install nodejs
+sudo apt-get install npm
+sudo npm install -g tldr
+tldr  --update</t>
+  </si>
+  <si>
+    <t>包管理</t>
+  </si>
+  <si>
+    <t>apt-get或apt</t>
+  </si>
+  <si>
+    <t>linux安装升级清理软件包。
+sudo apt-get update  更新可用包数据库
+sudo apt-get upgrade 升级软件包
+sudo apt-get install &lt;package_name&gt;   安装
+apt-get remove  移除软件包
+apt-get purge  移除软件包及配置文件</t>
+  </si>
+  <si>
+    <t>npm</t>
+  </si>
+  <si>
+    <t>随同NodeJS一起安装的包管理工具，类似pip相对python</t>
+  </si>
+  <si>
+    <t>RPM 和 DPKG 为最常见的两类软件包管理工具</t>
+  </si>
+  <si>
+    <t>curl</t>
+  </si>
+  <si>
+    <t>用来和服务器传输数据的工具，支持的协议包括DICT, FILE, FTP, FTPS, GOPHER, HTTP, HTTPS, IMAP, IMAPS, LDAP, LDAPS, POP3, POP3S, RTMP, RTSP, SCP, SFTP, SMTP, SMTPS, TELNET and TFTP</t>
+  </si>
+  <si>
+    <t>GET:curl URL</t>
+  </si>
+  <si>
+    <t>POST:curl -X POST -d 'a=1&amp;b=nihao' URL</t>
+  </si>
+  <si>
+    <t>scp</t>
+  </si>
+  <si>
+    <t>ping</t>
+  </si>
+  <si>
+    <t>-c：次数</t>
+  </si>
+  <si>
+    <t>ifconfig</t>
+  </si>
+  <si>
+    <t>看本机网络信息</t>
+  </si>
+  <si>
+    <t>ln软链接硬链接</t>
+  </si>
+  <si>
+    <t>ln -s a.so a.so.9</t>
+  </si>
+  <si>
+    <t>区别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、本质：硬链接：同一个文件多个别名，软连接是不同的文件（文件/目录的快捷方式）
+2、跨分区:硬链接不能跨分区，软连接可以跨分区
+3、目录创建 硬链接不能创建目录
+4、相互关系，软连接依赖原始文件
+5、inode号
+6、链接数
+7、路径：相对与当前目录是硬链接 相对与软连接的路径
+</t>
+  </si>
+  <si>
+    <t>相同</t>
+  </si>
+  <si>
+    <r>
+      <t>都可以修改原文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：硬链接是在inode层面上去修改inode记录的数据区块，修改其中一个硬连接文件则所有文件都会被同步修改；符号链接作为“快捷方式”修改的是它所存放的链接并通过链接打开的原文件</t>
+    </r>
+  </si>
+  <si>
+    <t>硬链接</t>
+  </si>
+  <si>
+    <r>
+      <t>1、文件</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有相同的inode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及data block
+2、只能对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经存在的文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行创建
+3、不能实现跨分区创建硬链接
+4、不能对目录进行创建，只能对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建
+5、删除一个硬链接文件并不影响其他有相同的inode号的文件
+6、创建硬链接时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>链接计数增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，删除时链接数减少，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到0时删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个inode</t>
+    </r>
+  </si>
+  <si>
+    <t>软链接</t>
+  </si>
+  <si>
+    <r>
+      <t>文件用户数据块中存放的内容是另一文件的路径名的指向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1、软连接有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自己的inode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号，用户数据块，文件属性和权限
+2、可</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对不存在的文件或目录创建软连接
+3、软连接可跨分区创建
+4、软连接对文件或目录创建
+5、创建软连接时，链接计数不会增加
+6、删除软连接不影响被指向的文件，若被指向的原文件删了除，则相关软连接就没有用了，但是并不会删除，如果创建文件，则软连接有重新生效了。</t>
+    </r>
+  </si>
+  <si>
+    <t>inode</t>
+  </si>
+  <si>
+    <t>存储文件元信息，如字节数，权限，文件数据block位置
+stat filename 查看文件元信息</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-S新建一个叫xxx的作业  -ls 显示已创建的   -r 恢复离线的作业 -wipe删除无法使用的  -d将指定任务离线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ctrl+a+d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> detach，暂时离开当前session，将目前的 screen session (可能含有多个 windows) 丢到后台执行，并会回到还没进 screen 时的状态，此时在 screen session 里，每个 window 内运行的 process (无论是前台/后台)都在继续执行，即使 logout 也不影响</t>
+    </r>
+  </si>
+  <si>
+    <t>端口与进程</t>
+  </si>
+  <si>
+    <t>lsof</t>
+  </si>
+  <si>
+    <t>lsof -i:8000   查看端口占用情况</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>删除执行中的程序或工作
+kill -9 12632   关闭进程,程序或工作的编号可利用 ps 指令或 jobs 指令查看</t>
+  </si>
+  <si>
+    <t>netstat</t>
+  </si>
+  <si>
+    <t>查看占用端口的进程</t>
+  </si>
+  <si>
+    <t>netstat -a</t>
+  </si>
+  <si>
+    <t>查看已经连接的服务端口（ESTABLISHED）</t>
+  </si>
+  <si>
+    <t>netstat -ap</t>
+  </si>
+  <si>
+    <t>查看所有的服务端口（LISTEN，ESTABLISHED）</t>
+  </si>
+  <si>
+    <t>netstat -anp | grep 端口号</t>
+  </si>
+  <si>
+    <t>查看特定端口的进程(grep:用于查找文件里符合条件的字符串)</t>
+  </si>
+  <si>
+    <t>CPU与内存性能监控</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进程信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              top -d 2  两秒钟刷新一次</t>
+    </r>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>查看进程信息，查看一次系统的快照
+ps -l   查看自己的进程
+ps aux  查看系统所有进程</t>
+  </si>
+  <si>
+    <t>vmstat</t>
+  </si>
+  <si>
+    <t>htop</t>
+  </si>
+  <si>
+    <r>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cpu和内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用情况</t>
+    </r>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <r>
+      <t>磁盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用情况，-h为便于人阅读的格式</t>
+    </r>
+  </si>
+  <si>
+    <t>ulimit</t>
+  </si>
+  <si>
+    <t>用来限制系统用户对资源的访问</t>
+  </si>
+  <si>
+    <r>
+      <t>-a：显示目前资源限制的设定；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+-c &lt;core文件上限&gt;：设定core文件的最大值，单位为区块；
+-d &lt;数据节区大小&gt;：程序数据节区的最大值，单位为KB；
+-f &lt;文件大小&gt;：shell所能建立的最大文件，单位为区块；
+-H：设定资源的硬性限制，也就是管理员所设下的限制；
+-m &lt;内存大小&gt;：指定可使用内存的上限，单位为KB；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-n &lt;文件数目&gt;：指定同一时间最多可开启的文件数；   修改文件最大句柄数，默认为1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+-p &lt;缓冲区大小&gt;：指定管道缓冲区的大小，单位512字节；
+-s &lt;堆叠大小&gt;：指定堆叠的上限，单位为KB；
+-S：设定资源的弹性限制；
+-t &lt;CPU时间&gt;：指定CPU使用时间的上限，单位为秒；
+-u &lt;程序数目&gt;：用户最多可开启的程序数目；
+-v &lt;虚拟内存大小&gt;：指定可使用的虚拟内存上限，单位为KB。</t>
+    </r>
+  </si>
+  <si>
+    <t>输入kill后发生了什么</t>
+  </si>
+  <si>
+    <t>简单介绍一下 Linux 文件系统</t>
+  </si>
+  <si>
+    <r>
+      <t>在Linux操作系统中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被操作系统管理的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，例如网络接口卡、磁盘驱动器、打印机、输入输出设备、普通文件或是目录都被看作是一个文件。
+也就是说在LINUX系统中有一个重要的概念：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一切都是文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。其实这是UNIX哲学的一个体现，而Linux是重写UNIX而来，所以这个概念也就传承了下来。在UNIX系统中，把一切资源都看作是文件，包括硬件设备。UNIX系统把每个硬件都看成是一个文件，通常称为设备文件，这样用户就可以用读写文件的方式实现对硬件的访问。</t>
+    </r>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>拷贝一行</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>粘贴</t>
   </si>
 </sst>
 </file>
@@ -2244,13 +3249,24 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2719,10 +3735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2731,37 +3747,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2770,99 +3780,159 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2876,10 +3946,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2892,7 +3962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -2901,8 +3971,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2963,6 +4045,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1073785</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7877810</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="vim键盘图"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1759585" y="34874835"/>
+          <a:ext cx="8716645" cy="6477000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3225,41 +4354,41 @@
   <sheetPr/>
   <dimension ref="A2:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="116.212962962963" customWidth="1"/>
+    <col min="1" max="1" width="15" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.5583333333333" style="19" customWidth="1"/>
+    <col min="3" max="3" width="116.216666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="55.2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="56" spans="1:3">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="27.6" spans="2:3">
-      <c r="B3" s="2" t="s">
+    <row r="3" ht="28" spans="2:3">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -3267,7 +4396,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
@@ -3275,7 +4404,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
@@ -3283,7 +4412,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -3291,7 +4420,7 @@
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
@@ -3299,7 +4428,7 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
@@ -3307,10 +4436,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
@@ -3318,7 +4447,7 @@
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
@@ -3326,226 +4455,226 @@
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="41.4" spans="2:3">
-      <c r="B15" s="1" t="s">
+    <row r="15" ht="42" spans="2:3">
+      <c r="B15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="27.6" spans="2:3">
-      <c r="B17" s="1" t="s">
+    <row r="17" ht="28" spans="2:3">
+      <c r="B17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="4"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="4"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" ht="41.4" spans="2:3">
-      <c r="B38" s="15" t="s">
+    <row r="38" ht="42" spans="2:3">
+      <c r="B38" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" ht="27.6" spans="2:3">
-      <c r="B41" s="1" t="s">
+    <row r="41" ht="28" spans="2:3">
+      <c r="B41" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C44" t="s">
@@ -3553,264 +4682,264 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" ht="69" spans="1:3">
-      <c r="A47" s="1" t="s">
+    <row r="47" ht="70" spans="1:3">
+      <c r="A47" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" ht="82.8" spans="2:3">
-      <c r="B49" s="1" t="s">
+    <row r="49" ht="84" spans="2:3">
+      <c r="B49" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" ht="82.8" spans="2:3">
-      <c r="B51" s="1" t="s">
+    <row r="51" ht="84" spans="2:3">
+      <c r="B51" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" ht="124.2" spans="1:3">
-      <c r="A53" s="1" t="s">
+    <row r="53" ht="126" spans="1:3">
+      <c r="A53" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" ht="27.6" spans="3:3">
-      <c r="C54" s="4" t="s">
+    <row r="54" ht="28" spans="3:3">
+      <c r="C54" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" ht="82.8" spans="1:3">
-      <c r="A55" s="1" t="s">
+    <row r="55" ht="84" spans="1:3">
+      <c r="A55" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" ht="41.4" spans="3:3">
-      <c r="C56" s="3" t="s">
+    <row r="56" ht="42" spans="3:3">
+      <c r="C56" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" ht="55.2" spans="1:3">
-      <c r="A57" s="1" t="s">
+    <row r="57" ht="56" spans="1:3">
+      <c r="A57" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" ht="151.8" spans="1:3">
-      <c r="A58" s="1" t="s">
+    <row r="58" ht="154" spans="1:3">
+      <c r="A58" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="59" ht="41.4" spans="1:3">
-      <c r="A59" s="1" t="s">
+    <row r="59" ht="42" spans="1:3">
+      <c r="A59" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" ht="27.6" spans="2:3">
-      <c r="B63" s="1" t="s">
+    <row r="63" ht="28" spans="2:3">
+      <c r="B63" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="27" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="26" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="66" ht="27.6" spans="2:3">
-      <c r="B66" s="1" t="s">
+    <row r="66" ht="28" spans="2:3">
+      <c r="B66" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="26" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" ht="27.6" spans="2:3">
-      <c r="B70" s="11" t="s">
+    <row r="70" ht="28" spans="2:3">
+      <c r="B70" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="27" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="30" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="73" ht="55.2" spans="1:3">
-      <c r="A73" s="1" t="s">
+    <row r="73" ht="56" spans="1:3">
+      <c r="A73" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="27" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" ht="82.8" spans="1:3">
-      <c r="A75" s="1" t="s">
+      <c r="C74" s="19"/>
+    </row>
+    <row r="75" ht="84" spans="1:3">
+      <c r="A75" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="22" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="19" t="s">
         <v>132</v>
       </c>
       <c r="C76" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="77" ht="27.6" spans="3:3">
-      <c r="C77" s="4" t="s">
+    <row r="77" ht="28" spans="3:3">
+      <c r="C77" s="22" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C78" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" ht="27.6" spans="2:3">
-      <c r="B80" s="1" t="s">
+    <row r="80" ht="28" spans="2:3">
+      <c r="B80" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="4"/>
+      <c r="C81" s="22"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="19" t="s">
         <v>140</v>
       </c>
       <c r="C82" t="s">
@@ -3818,90 +4947,90 @@
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="19" t="s">
         <v>142</v>
       </c>
       <c r="C83" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="84" ht="27.6" spans="2:3">
-      <c r="B84" s="1" t="s">
+    <row r="84" ht="28" spans="2:3">
+      <c r="B84" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="22" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="22" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="22" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" ht="41.4" spans="1:3">
-      <c r="A94" s="1" t="s">
+    <row r="94" ht="42" spans="1:3">
+      <c r="A94" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="19" t="s">
         <v>163</v>
       </c>
       <c r="C97" t="s">
@@ -3909,110 +5038,110 @@
       </c>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="19" t="s">
         <v>165</v>
       </c>
       <c r="C98" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="100" ht="41.4" spans="1:3">
-      <c r="A100" s="1" t="s">
+    <row r="100" ht="42" spans="1:3">
+      <c r="A100" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="101" ht="27.6" spans="1:3">
-      <c r="A101" s="1" t="s">
+    <row r="101" ht="28" spans="1:3">
+      <c r="A101" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="26" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="102" ht="27.6" spans="1:3">
-      <c r="A102" s="1" t="s">
+    <row r="102" ht="28" spans="1:3">
+      <c r="A102" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="26" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" ht="27.6" spans="1:3">
-      <c r="A103" s="1" t="s">
+    <row r="103" ht="28" spans="1:3">
+      <c r="A103" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="104" ht="41.4" spans="1:3">
-      <c r="A104" s="1" t="s">
+    <row r="104" ht="28" spans="1:3">
+      <c r="A104" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="107" ht="55.2" spans="1:3">
-      <c r="A107" s="1" t="s">
+    <row r="107" ht="56" spans="1:3">
+      <c r="A107" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="108" ht="55.2" spans="2:3">
-      <c r="B108" s="1" t="s">
+    <row r="108" ht="56" spans="2:3">
+      <c r="B108" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="109" ht="82.8" spans="2:3">
-      <c r="B109" s="1" t="s">
+    <row r="109" ht="84" spans="2:3">
+      <c r="B109" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="110" ht="41.4" spans="2:3">
-      <c r="B110" s="1" t="s">
+    <row r="110" ht="42" spans="2:3">
+      <c r="B110" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="22" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="111" ht="69" spans="2:3">
-      <c r="B111" s="1" t="s">
+    <row r="111" ht="70" spans="2:3">
+      <c r="B111" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="22" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="22" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4040,4 +5169,1028 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:IV99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="25.1" style="1" customWidth="1"/>
+    <col min="3" max="3" width="122.1" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:256">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="3"/>
+      <c r="CR4" s="3"/>
+      <c r="CS4" s="3"/>
+      <c r="CT4" s="3"/>
+      <c r="CU4" s="3"/>
+      <c r="CV4" s="3"/>
+      <c r="CW4" s="3"/>
+      <c r="CX4" s="3"/>
+      <c r="CY4" s="3"/>
+      <c r="CZ4" s="3"/>
+      <c r="DA4" s="3"/>
+      <c r="DB4" s="3"/>
+      <c r="DC4" s="3"/>
+      <c r="DD4" s="3"/>
+      <c r="DE4" s="3"/>
+      <c r="DF4" s="3"/>
+      <c r="DG4" s="3"/>
+      <c r="DH4" s="3"/>
+      <c r="DI4" s="3"/>
+      <c r="DJ4" s="3"/>
+      <c r="DK4" s="3"/>
+      <c r="DL4" s="3"/>
+      <c r="DM4" s="3"/>
+      <c r="DN4" s="3"/>
+      <c r="DO4" s="3"/>
+      <c r="DP4" s="3"/>
+      <c r="DQ4" s="3"/>
+      <c r="DR4" s="3"/>
+      <c r="DS4" s="3"/>
+      <c r="DT4" s="3"/>
+      <c r="DU4" s="3"/>
+      <c r="DV4" s="3"/>
+      <c r="DW4" s="3"/>
+      <c r="DX4" s="3"/>
+      <c r="DY4" s="3"/>
+      <c r="DZ4" s="3"/>
+      <c r="EA4" s="3"/>
+      <c r="EB4" s="3"/>
+      <c r="EC4" s="3"/>
+      <c r="ED4" s="3"/>
+      <c r="EE4" s="3"/>
+      <c r="EF4" s="3"/>
+      <c r="EG4" s="3"/>
+      <c r="EH4" s="3"/>
+      <c r="EI4" s="3"/>
+      <c r="EJ4" s="3"/>
+      <c r="EK4" s="3"/>
+      <c r="EL4" s="3"/>
+      <c r="EM4" s="3"/>
+      <c r="EN4" s="3"/>
+      <c r="EO4" s="3"/>
+      <c r="EP4" s="3"/>
+      <c r="EQ4" s="3"/>
+      <c r="ER4" s="3"/>
+      <c r="ES4" s="3"/>
+      <c r="ET4" s="3"/>
+      <c r="EU4" s="3"/>
+      <c r="EV4" s="3"/>
+      <c r="EW4" s="3"/>
+      <c r="EX4" s="3"/>
+      <c r="EY4" s="3"/>
+      <c r="EZ4" s="3"/>
+      <c r="FA4" s="3"/>
+      <c r="FB4" s="3"/>
+      <c r="FC4" s="3"/>
+      <c r="FD4" s="3"/>
+      <c r="FE4" s="3"/>
+      <c r="FF4" s="3"/>
+      <c r="FG4" s="3"/>
+      <c r="FH4" s="3"/>
+      <c r="FI4" s="3"/>
+      <c r="FJ4" s="3"/>
+      <c r="FK4" s="3"/>
+      <c r="FL4" s="3"/>
+      <c r="FM4" s="3"/>
+      <c r="FN4" s="3"/>
+      <c r="FO4" s="3"/>
+      <c r="FP4" s="3"/>
+      <c r="FQ4" s="3"/>
+      <c r="FR4" s="3"/>
+      <c r="FS4" s="3"/>
+      <c r="FT4" s="3"/>
+      <c r="FU4" s="3"/>
+      <c r="FV4" s="3"/>
+      <c r="FW4" s="3"/>
+      <c r="FX4" s="3"/>
+      <c r="FY4" s="3"/>
+      <c r="FZ4" s="3"/>
+      <c r="GA4" s="3"/>
+      <c r="GB4" s="3"/>
+      <c r="GC4" s="3"/>
+      <c r="GD4" s="3"/>
+      <c r="GE4" s="3"/>
+      <c r="GF4" s="3"/>
+      <c r="GG4" s="3"/>
+      <c r="GH4" s="3"/>
+      <c r="GI4" s="3"/>
+      <c r="GJ4" s="3"/>
+      <c r="GK4" s="3"/>
+      <c r="GL4" s="3"/>
+      <c r="GM4" s="3"/>
+      <c r="GN4" s="3"/>
+      <c r="GO4" s="3"/>
+      <c r="GP4" s="3"/>
+      <c r="GQ4" s="3"/>
+      <c r="GR4" s="3"/>
+      <c r="GS4" s="3"/>
+      <c r="GT4" s="3"/>
+      <c r="GU4" s="3"/>
+      <c r="GV4" s="3"/>
+      <c r="GW4" s="3"/>
+      <c r="GX4" s="3"/>
+      <c r="GY4" s="3"/>
+      <c r="GZ4" s="3"/>
+      <c r="HA4" s="3"/>
+      <c r="HB4" s="3"/>
+      <c r="HC4" s="3"/>
+      <c r="HD4" s="3"/>
+      <c r="HE4" s="3"/>
+      <c r="HF4" s="3"/>
+      <c r="HG4" s="3"/>
+      <c r="HH4" s="3"/>
+      <c r="HI4" s="3"/>
+      <c r="HJ4" s="3"/>
+      <c r="HK4" s="3"/>
+      <c r="HL4" s="3"/>
+      <c r="HM4" s="3"/>
+      <c r="HN4" s="3"/>
+      <c r="HO4" s="3"/>
+      <c r="HP4" s="3"/>
+      <c r="HQ4" s="3"/>
+      <c r="HR4" s="3"/>
+      <c r="HS4" s="3"/>
+      <c r="HT4" s="3"/>
+      <c r="HU4" s="3"/>
+      <c r="HV4" s="3"/>
+      <c r="HW4" s="3"/>
+      <c r="HX4" s="3"/>
+      <c r="HY4" s="3"/>
+      <c r="HZ4" s="3"/>
+      <c r="IA4" s="3"/>
+      <c r="IB4" s="3"/>
+      <c r="IC4" s="3"/>
+      <c r="ID4" s="3"/>
+      <c r="IE4" s="3"/>
+      <c r="IF4" s="3"/>
+      <c r="IG4" s="3"/>
+      <c r="IH4" s="3"/>
+      <c r="II4" s="3"/>
+      <c r="IJ4" s="3"/>
+      <c r="IK4" s="3"/>
+      <c r="IL4" s="3"/>
+      <c r="IM4" s="3"/>
+      <c r="IN4" s="3"/>
+      <c r="IO4" s="3"/>
+      <c r="IP4" s="3"/>
+      <c r="IQ4" s="3"/>
+      <c r="IR4" s="3"/>
+      <c r="IS4" s="3"/>
+      <c r="IT4" s="3"/>
+      <c r="IU4" s="3"/>
+      <c r="IV4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="60" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="75" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="2:3">
+      <c r="B29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="2:3">
+      <c r="B30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:3">
+      <c r="B31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" spans="2:3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="45" spans="2:3">
+      <c r="B34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="30" spans="1:3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:3">
+      <c r="A37" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="30" spans="1:3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="75" spans="1:3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:3">
+      <c r="A40" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="30" spans="1:3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="3:3">
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="45" spans="1:3">
+      <c r="A47" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="30" spans="1:3">
+      <c r="A51" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="2:3">
+      <c r="B53" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:3">
+      <c r="A56" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="90" spans="1:3">
+      <c r="A57" s="13"/>
+      <c r="B57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="90" spans="1:3">
+      <c r="A58" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:2">
+      <c r="A60" s="8"/>
+      <c r="B60" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="30" spans="2:3">
+      <c r="B61" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="2:3">
+      <c r="B62" s="8"/>
+      <c r="C62" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="2:3">
+      <c r="B63" s="8"/>
+      <c r="C63" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="2:2">
+      <c r="B64" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="2:3">
+      <c r="B65" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="63" customHeight="1" spans="2:3">
+      <c r="B66" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="18" customHeight="1" spans="3:3">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+      <c r="A68" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="105" customHeight="1" spans="1:5">
+      <c r="A69" s="13"/>
+      <c r="B69" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
+      <c r="A70" s="13"/>
+      <c r="B70" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="106.05" customHeight="1" spans="1:3">
+      <c r="A71" s="13"/>
+      <c r="B71" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="120" spans="1:3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="30" spans="2:3">
+      <c r="B73" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="45" spans="2:3">
+      <c r="B75" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:3">
+      <c r="A77" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="30" spans="1:3">
+      <c r="A78" s="13"/>
+      <c r="B78" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:1">
+      <c r="A79" s="13"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:3">
+      <c r="A80" s="13"/>
+      <c r="B80" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:3">
+      <c r="A81" s="13"/>
+      <c r="B81" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:3">
+      <c r="A82" s="13"/>
+      <c r="B82" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:3">
+      <c r="A83" s="13"/>
+      <c r="B83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:3">
+      <c r="A84" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="45" spans="1:3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:3">
+      <c r="A86" s="13"/>
+      <c r="B86" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:3">
+      <c r="A87" s="13"/>
+      <c r="B87" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="2:3">
+      <c r="B88" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="2:3">
+      <c r="B90" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="195" spans="2:3">
+      <c r="B91" s="8"/>
+      <c r="C91" s="37" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="2:2">
+      <c r="B93" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="90" spans="2:3">
+      <c r="B95" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="2:2">
+      <c r="B97" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="2:3">
+      <c r="B98" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="2:3">
+      <c r="B99" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A26"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B90:B91"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>